--- a/CMDB_templates/cmdb Owners_list.xlsx
+++ b/CMDB_templates/cmdb Owners_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\numartin\Desktop\test_version_2\CMDB_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046DC9A6-E513-49A6-9CDF-27107E211C6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C136B3-B710-47D0-964E-86C2F0CCAF7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9ED44E68-1FB0-4DBA-BD9B-10D744C5661D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="cmdb_Owners" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cmdb_Owners!$A$1:$B$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cmdb_Owners!$A$1:$C$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
   <si>
     <t>Company</t>
   </si>
@@ -291,13 +291,133 @@
   </si>
   <si>
     <t>pt100712</t>
+  </si>
+  <si>
+    <t>abbre</t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>AATD</t>
+  </si>
+  <si>
+    <t>AAGA</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>AAKE</t>
+  </si>
+  <si>
+    <t>AAMG</t>
+  </si>
+  <si>
+    <t>AAMW</t>
+  </si>
+  <si>
+    <t>AASC</t>
+  </si>
+  <si>
+    <t>AATZ</t>
+  </si>
+  <si>
+    <t>AAUG</t>
+  </si>
+  <si>
+    <t>AAZM</t>
+  </si>
+  <si>
+    <t>TFLGB</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>EAN</t>
+  </si>
+  <si>
+    <t>EMT</t>
+  </si>
+  <si>
+    <t>POPC</t>
+  </si>
+  <si>
+    <t>ORIP</t>
+  </si>
+  <si>
+    <t>TPK</t>
+  </si>
+  <si>
+    <t>3IR</t>
+  </si>
+  <si>
+    <t>VDC</t>
+  </si>
+  <si>
+    <t>VZA</t>
+  </si>
+  <si>
+    <t>WING</t>
+  </si>
+  <si>
+    <t>TTN</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>IIJ</t>
+  </si>
+  <si>
+    <t>BHI</t>
+  </si>
+  <si>
+    <t>OBF</t>
+  </si>
+  <si>
+    <t>VZAD</t>
+  </si>
+  <si>
+    <t>OPT</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>ATT</t>
+  </si>
+  <si>
+    <t>AACG</t>
+  </si>
+  <si>
+    <t>AANE</t>
+  </si>
+  <si>
+    <t>MTNSH</t>
+  </si>
+  <si>
+    <t>OCAL</t>
+  </si>
+  <si>
+    <t>RKT</t>
+  </si>
+  <si>
+    <t>MBL</t>
+  </si>
+  <si>
+    <t>T-Mobile</t>
+  </si>
+  <si>
+    <t>arotaru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,14 +437,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -383,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -406,62 +518,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -470,22 +545,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -798,466 +881,626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72062496-B7C1-4A61-8099-3F77FB353CDA}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="C1" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="C12" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="C13" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="C14" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="C15" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="C16" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="C17" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="C18" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="C31" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="C34" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="C35" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="C37" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B38" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="C38" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B39" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="C39" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B40" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="C40" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B41" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="C41" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="C42" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="C43" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B44" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="C44" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B45" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="C45" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B46" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="C46" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="C47" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B48" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+      <c r="C48" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="C50" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B51" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="C51" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" s="13"/>
+    </row>
+    <row r="54" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="13"/>
+    </row>
+    <row r="55" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="13"/>
+    </row>
+    <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="13"/>
+    </row>
+    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="6"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B56" xr:uid="{6BA48DE0-59EF-428D-8270-DB1CFE750448}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C57" xr:uid="{E921E782-6C1C-4F62-9CC0-9FD48B56513A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
